--- a/Lab1/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Lab1/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{250120B5-50D4-415C-9865-1F76FAAB055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7F0426-001D-4B38-9516-5D59CAACE93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>do not print this form</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Student 1:</t>
   </si>
   <si>
+    <t>Cristian Bacter</t>
+  </si>
+  <si>
     <t>Document  Title:</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>Student 2:</t>
   </si>
   <si>
+    <t>Bianca-Vlasia Bozga</t>
+  </si>
+  <si>
     <t>Author Name:</t>
   </si>
   <si>
@@ -77,12 +83,21 @@
     <t>Student 3:</t>
   </si>
   <si>
+    <t>Florin Baciu</t>
+  </si>
+  <si>
     <t>Reviewer Name:</t>
   </si>
   <si>
+    <t xml:space="preserve">Bianca-Vlasia Bozga </t>
+  </si>
+  <si>
     <t xml:space="preserve">Review date: </t>
   </si>
   <si>
+    <t>09.03.2025</t>
+  </si>
+  <si>
     <t>Crt. No.</t>
   </si>
   <si>
@@ -95,30 +110,84 @@
     <t>Comments/ improvements</t>
   </si>
   <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>It is not specified whether adding a task is persistent and how tasks will persist in the application.</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>It is not specified how the date and time are entered, whether a DatePicker is used, if the user can enter invalid dates, or if there are constraints ensuring the start date and time are before the end date and time.</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We cannot have two types of time intervals; it must be either a number of days or a number of hours and minutes. </t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>It is not specified what happens on the first launch of the application or whether it should automatically load previous data / what the first screen of the application is.</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>If a task is recurring and has instances within the selected period, it is not specified whether all its instances are displayed.</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>It is not clear whether the user will receive a visual confirmation after adding a task or a notification for a newly received task.</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>It is not clear how deletion is handled in the system. It is also unclear whether the user receives a confirmation or if the task simply disappears from the task screen.</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>It is not mentioned how the deletion of a repetitive task is managed (individual deletion or mass deletion?).</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>It is not specified which fields can be modified .</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
+    <t>30 min</t>
+  </si>
+  <si>
     <t>Review Form. Architectural Design Defects</t>
   </si>
   <si>
-    <t>Cristian Bacter</t>
-  </si>
-  <si>
     <t>Architectural Design Document</t>
   </si>
   <si>
-    <t>Bianca-Vlasia Bozga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
     <t>Georgescu Anca</t>
   </si>
   <si>
-    <t>Florin Baciu</t>
-  </si>
-  <si>
     <t>08.03.2025</t>
   </si>
   <si>
@@ -146,9 +215,6 @@
     <t>There are many controllers in the application, and the "Controller" class is too unclear. / renamed the class to "MainController"</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>Review Form. Coding Defects</t>
   </si>
   <si>
@@ -158,12 +224,108 @@
     <t>Popescu Ionel</t>
   </si>
   <si>
+    <t>Bacter Cristian</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>ArrayTaskList.java, line 76</t>
+  </si>
+  <si>
+    <t>The System.arraycopy call uses 'numberOfTasks-indexOfTaskToDelete+1' which could cause undefined array boundary behavior when removing the last element, as it may attempt to copy beyond array bounds.</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>TaskIO.java, line 167</t>
+  </si>
+  <si>
+    <t>The loop counter logic 'while (i != 1 &amp;&amp; j != 1)' combined with inconsistent increment/decrement operations creates unclear loop termination conditions that could lead to infinite loops.</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Main.java, line 30</t>
+  </si>
+  <si>
+    <t>The service object is instantiated twice (lines 30 and 46) leading to potential data inconsistency when preparing input data, as the first instance is never used.</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>TasksService.java, line 30</t>
+  </si>
+  <si>
+    <t>The formTimeUnit() method has confusing parameter handling with redundant conditions (checking for zero twice) and unclear logic flow.</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>TaskIO.java, line 103</t>
+  </si>
+  <si>
+    <t>Output formatting inconsistency between ";" and "." for task separators could lead to parsing errors when processing output.</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Task.java, line 99</t>
+  </si>
+  <si>
+    <t>Decision logic in nextTimeAfter() is erroneous because it returns timeBefore instead of the expected timeAfter, creating incorrect behavior when determining the next task time.</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>LinkedTaskList.java, line 65</t>
+  </si>
+  <si>
+    <t>The variable handling is incorrect - LinkedTaskList.remove() method doesn't properly check if cursor is null, which violates type handling expectations.</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>NewEditController.java, line 144</t>
+  </si>
+  <si>
+    <t>Branching logic in saveChanges() method is erroneous as it doesn't properly verify task validity before adding it to the list.</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>TaskIO.java, line 190</t>
+  </si>
+  <si>
+    <t>The getIntervalFromText() method violates subprogram structure by implementing complex parsing logic that should be organized into smaller, more focused helper methods.</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>Main.java, line 55</t>
+  </si>
+  <si>
+    <t>The error message processing is inadequate as it only prints stack trace without providing proper user feedback or handling.</t>
+  </si>
+  <si>
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Tool used:</t>
   </si>
   <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
     <t>File, Line</t>
   </si>
   <si>
@@ -176,14 +338,71 @@
     <t>After/Argument</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
+    <t>Use static access with "java.util.Calendar" for "getInstance".</t>
+  </si>
+  <si>
+    <t>Calendar calendar = GregorianCalendar.getInstance();</t>
+  </si>
+  <si>
+    <t>Calendar calendar = Calendar.getInstance();</t>
+  </si>
+  <si>
+    <t>Rename this package name to match the regular expression '^[a-z_]+(\.[a-z_][a-z0-9_]*)*$'.</t>
+  </si>
+  <si>
+    <t>package tasks.Persistence;</t>
+  </si>
+  <si>
+    <t>package tasks.persistence;</t>
+  </si>
+  <si>
+    <t>Remove this "clone" implementation; use a copy constructor or copy factory instead</t>
+  </si>
+  <si>
+    <t>@Override
+    protected LinkedTaskList clone() throws CloneNotSupportedException {
+        LinkedTaskList tasks = new LinkedTaskList();
+        for (Task t : this){
+            tasks.add(t);
+        }
+        return tasks;
+    }</t>
+  </si>
+  <si>
+    <t>removed it</t>
+  </si>
+  <si>
+    <t>Remove this unused private "setTask" method.</t>
+  </si>
+  <si>
+    <t>private void setTask(Task task) {
+            this.task = task;
+        }</t>
+  </si>
+  <si>
+    <t>"iterator" is defined in the "Iterable" interface and can be removed from this class.</t>
+  </si>
+  <si>
+    <t>public abstract Iterator&lt;Task&gt; iterator();</t>
+  </si>
+  <si>
+    <t>Replace this use of System.out by a logger.</t>
+  </si>
+  <si>
+    <t>System.out.println(getTask(i).getTitle());</t>
+  </si>
+  <si>
+    <t>log.info("Incoming task: " + getTask(i).getTitle());</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours):30 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +466,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +511,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -343,11 +587,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,51 +669,105 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,6 +784,149 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B16733-A05E-A54C-E069-AE7CC698990E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1533525"/>
+          <a:ext cx="6410325" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28B77E7-E7CC-975A-D6FA-CCCE8AE15294}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{52B16733-A05E-A54C-E069-AE7CC698990E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2352675"/>
+          <a:ext cx="6438900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0634F45-41D7-17D8-6734-77BCE2C46F2F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E28B77E7-E7CC-975A-D6FA-CCCE8AE15294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="3400425"/>
+          <a:ext cx="6381750" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,11 +1221,11 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -742,7 +1237,7 @@
     <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -752,27 +1247,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -784,56 +1279,70 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="D4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="35"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="37"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -844,10 +1353,12 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -857,16 +1368,16 @@
     <row r="9" spans="1:10">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -874,198 +1385,252 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="45.75">
       <c r="A10" s="16"/>
-      <c r="B10" s="31">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="76.5">
       <c r="A11" s="16"/>
-      <c r="B11" s="31">
+      <c r="B11" s="17">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="45.75">
       <c r="A12" s="16"/>
-      <c r="B12" s="31">
+      <c r="B12" s="17">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="60.75">
       <c r="A13" s="16"/>
-      <c r="B13" s="31">
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="45.75">
       <c r="A14" s="16"/>
-      <c r="B14" s="31">
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="45.75">
       <c r="A15" s="16"/>
-      <c r="B15" s="31">
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="60.75">
       <c r="A16" s="16"/>
-      <c r="B16" s="31">
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="31">
+    <row r="17" spans="2:5" ht="45.75">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="31">
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30.75">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="C18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="31">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="31">
+      <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="31">
+      <c r="B21" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="31">
+      <c r="B22" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="31">
+      <c r="B23" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="31">
+      <c r="B24" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="31">
+      <c r="B25" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1088,11 +1653,11 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -1103,7 +1668,7 @@
     <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1113,27 +1678,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1145,13 +1710,13 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="31">
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
         <v>231</v>
       </c>
     </row>
@@ -1159,21 +1724,21 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="38"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
         <v>231</v>
       </c>
     </row>
@@ -1181,21 +1746,21 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="40"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="31">
+      <c r="H5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17">
         <v>231</v>
       </c>
     </row>
@@ -1203,12 +1768,12 @@
       <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1219,12 +1784,12 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="32"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1234,16 +1799,16 @@
     <row r="9" spans="1:10">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1251,19 +1816,19 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" ht="121.5">
+    <row r="10" spans="1:10" ht="108">
       <c r="A10" s="16"/>
-      <c r="B10" s="31">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1271,20 +1836,20 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="106.5">
+    <row r="11" spans="1:10" ht="81">
       <c r="A11" s="16"/>
-      <c r="B11" s="31">
+      <c r="B11" s="17">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1292,20 +1857,20 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="45.75">
+    <row r="12" spans="1:10" ht="41.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="31">
+      <c r="B12" s="17">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1315,7 +1880,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="16"/>
-      <c r="B13" s="31">
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1330,7 +1895,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16"/>
-      <c r="B14" s="31">
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1345,7 +1910,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="16"/>
-      <c r="B15" s="31">
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1360,7 +1925,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="16"/>
-      <c r="B16" s="31">
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1374,7 +1939,7 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="31">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1383,7 +1948,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="31">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1392,7 +1957,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="31">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1401,7 +1966,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="31">
+      <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1410,7 +1975,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="31">
+      <c r="B21" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1419,7 +1984,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="31">
+      <c r="B22" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1428,7 +1993,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="31">
+      <c r="B23" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1437,7 +2002,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="31">
+      <c r="B24" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1446,7 +2011,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="31">
+      <c r="B25" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1455,7 +2020,7 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="31">
+      <c r="B26" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1466,11 +2031,11 @@
     <row r="28" spans="2:5">
       <c r="B28" s="16"/>
       <c r="C28" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1495,22 +2060,23 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="6" max="7" width="8.85546875" style="5"/>
+    <col min="8" max="8" width="10.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1520,27 +2086,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1552,56 +2118,70 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="41"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="43"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1612,10 +2192,12 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="32"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1625,16 +2207,16 @@
     <row r="9" spans="1:10">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1642,243 +2224,320 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="79.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="31">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="76.5">
       <c r="A11" s="16"/>
-      <c r="B11" s="31">
+      <c r="B11" s="25">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="60.75">
       <c r="A12" s="16"/>
-      <c r="B12" s="31">
+      <c r="B12" s="25">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="60.75">
       <c r="A13" s="16"/>
-      <c r="B13" s="31">
+      <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="45.75">
       <c r="A14" s="16"/>
-      <c r="B14" s="31">
+      <c r="B14" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="76.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="31">
+      <c r="B15" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="60.75">
       <c r="A16" s="16"/>
-      <c r="B16" s="31">
+      <c r="B16" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="31">
+    <row r="17" spans="2:6" ht="45.75">
+      <c r="B17" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="31">
+      <c r="C17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" ht="60.75">
+      <c r="B18" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="31">
+      <c r="C18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" ht="45.75">
+      <c r="B19" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="31">
+      <c r="C19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="31">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="31">
+      <c r="C21" s="26"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="31">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="31">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="31">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="31">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="31">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="31">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="31">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="31">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="16"/>
       <c r="C32" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1901,11 +2560,11 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
@@ -1918,7 +2577,7 @@
     <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1928,27 +2587,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1960,52 +2619,70 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="50"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="32"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -2015,276 +2692,332 @@
     <row r="9" spans="1:10">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="60.75">
       <c r="A10" s="16"/>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="20">
+        <v>37</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="60.75">
       <c r="A11" s="16"/>
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="20">
+        <v>45</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="91.5">
       <c r="A12" s="16"/>
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="183">
       <c r="A13" s="16"/>
-      <c r="B13" s="31">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="20">
+        <v>179</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="60.75">
       <c r="A14" s="16"/>
-      <c r="B14" s="31">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="20">
+        <v>138</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="76.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="31">
+      <c r="B15" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="20">
+        <v>17</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="60.75">
       <c r="A16" s="16"/>
-      <c r="B16" s="31">
+      <c r="B16" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="20">
+        <v>32</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="31">
+      <c r="B17" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="31">
+      <c r="B18" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="31">
+      <c r="B19" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="31">
+      <c r="B20" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="31">
+      <c r="B22" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="31">
+      <c r="B28" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="31">
+      <c r="B30" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="16"/>
-      <c r="C32" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="C32" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="15"/>
     </row>
     <row r="35" spans="6:6">
@@ -2301,5 +3034,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>